--- a/Data/EC/NIT-9000366941.xlsx
+++ b/Data/EC/NIT-9000366941.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D8F3394-0FC5-4942-AF40-6CFF19A9A0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A098DDA3-45A5-4493-8338-5FF5D6D05C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C5C3E0DB-8047-4B05-9EA5-454908A9C2BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A518B0A5-B9D3-4AB2-A6E3-4BD826E4300C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="206">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,28 +65,469 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45434393</t>
+  </si>
+  <si>
+    <t>ESTHER VERGARA HEREDIA</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
     <t>73111414</t>
   </si>
   <si>
     <t>JOAQUIN FERNANDO PUELLO DAVID</t>
   </si>
   <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
+    <t>22803970</t>
+  </si>
+  <si>
+    <t>LEDIS BAZA VALDERRAMA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>30771926</t>
+  </si>
+  <si>
+    <t>SILVINA DE JESUS ALCALA PEREZ</t>
+  </si>
+  <si>
+    <t>45558961</t>
+  </si>
+  <si>
+    <t>SADITH MARIA GIL MEJIA</t>
+  </si>
+  <si>
+    <t>45592551</t>
+  </si>
+  <si>
+    <t>YACKELINE ALTAMIRANDA PUELLO</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>23002755</t>
+  </si>
+  <si>
+    <t>BLANCA ISABEL GOMEZ GALINDO</t>
+  </si>
+  <si>
+    <t>45484030</t>
+  </si>
+  <si>
+    <t>MARIBEL ETILDA ROSA PACHECO ROBLES</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>1002306447</t>
+  </si>
+  <si>
+    <t>CARLOS DAVID MENDOZA RAMIREZ</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>22492180</t>
+  </si>
+  <si>
+    <t>CLARA ELENA PEREZ ZAMBRANO</t>
+  </si>
+  <si>
+    <t>1067867199</t>
+  </si>
+  <si>
+    <t>STEFANY JOHANA ARTEAGA MARQUEZ</t>
+  </si>
+  <si>
+    <t>45763963</t>
+  </si>
+  <si>
+    <t>MARIA ENRIQUETA GOMEZ NARVAEZ</t>
+  </si>
+  <si>
+    <t>45373232</t>
+  </si>
+  <si>
+    <t>MOIRA BARRIOS REYES</t>
+  </si>
+  <si>
+    <t>45591744</t>
+  </si>
+  <si>
+    <t>NARLEY ESTHER RAMOS ANGULO</t>
+  </si>
+  <si>
+    <t>1050949960</t>
+  </si>
+  <si>
+    <t>PATRICIA DEL CARMEN CANTILLO ZABALETA</t>
+  </si>
+  <si>
+    <t>45519516</t>
+  </si>
+  <si>
+    <t>ARELIS VASQUEZ MAZA</t>
+  </si>
+  <si>
     <t>1047384362</t>
   </si>
   <si>
     <t>ROBER GODOY CABEZA</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>45755922</t>
+  </si>
+  <si>
+    <t>DUBYS ESTER CABEZA CEDEÑO</t>
+  </si>
+  <si>
+    <t>73142382</t>
+  </si>
+  <si>
+    <t>LEONARDO BLANCO NAVARRO</t>
+  </si>
+  <si>
+    <t>45593662</t>
+  </si>
+  <si>
+    <t>JANINA PATRICIA PINTO AVILA</t>
+  </si>
+  <si>
+    <t>1101450586</t>
+  </si>
+  <si>
+    <t>JEISY BERRIO ALVAREZ</t>
+  </si>
+  <si>
+    <t>1051443460</t>
+  </si>
+  <si>
+    <t>MARIA DE LOS ANGELES GOMEZ REYES</t>
+  </si>
+  <si>
+    <t>45482963</t>
+  </si>
+  <si>
+    <t>DORIS VALDELAMAR RIVERA</t>
   </si>
   <si>
     <t>45478789</t>
@@ -95,40 +536,10 @@
     <t>NIEVES ISABEL VALDERRAMA CANTILLO</t>
   </si>
   <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>45763963</t>
-  </si>
-  <si>
-    <t>MARIA ENRIQUETA GOMEZ NARVAEZ</t>
-  </si>
-  <si>
-    <t>45434393</t>
-  </si>
-  <si>
-    <t>ESTHER VERGARA HEREDIA</t>
-  </si>
-  <si>
-    <t>22492180</t>
-  </si>
-  <si>
-    <t>CLARA ELENA PEREZ ZAMBRANO</t>
-  </si>
-  <si>
-    <t>1067867199</t>
-  </si>
-  <si>
-    <t>STEFANY JOHANA ARTEAGA MARQUEZ</t>
-  </si>
-  <si>
-    <t>1702</t>
+    <t>45528875</t>
+  </si>
+  <si>
+    <t>GUMERCINDA OVIEDO BARRIOS</t>
   </si>
   <si>
     <t>1050960740</t>
@@ -137,130 +548,16 @@
     <t>ANA MILENA ACEVEDO BOLAÑO</t>
   </si>
   <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>73142382</t>
-  </si>
-  <si>
-    <t>LEONARDO BLANCO NAVARRO</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
+    <t>1050974463</t>
+  </si>
+  <si>
+    <t>NELCY MARIA FIGUEROA QUINTANA</t>
+  </si>
+  <si>
+    <t>1050970703</t>
+  </si>
+  <si>
+    <t>KEIVER ANDRES CASTELLAR MONTALVO</t>
   </si>
   <si>
     <t>20265043</t>
@@ -269,48 +566,12 @@
     <t>MANUEL ESTEBAN BAZA VALDERRAMA</t>
   </si>
   <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
     <t>1126257688</t>
   </si>
   <si>
     <t>LILIANA COROMOTO REYES SUÃ?IGA</t>
   </si>
   <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
     <t>PE</t>
   </si>
   <si>
@@ -320,160 +581,46 @@
     <t>NORIELSY DEL CARMEN TERAN BERRIOS</t>
   </si>
   <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>1050974463</t>
-  </si>
-  <si>
-    <t>NELCY MARIA FIGUEROA QUINTANA</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>45592551</t>
-  </si>
-  <si>
-    <t>YACKELINE ALTAMIRANDA PUELLO</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>32774472</t>
+  </si>
+  <si>
+    <t>GEORGINA ALVAREZ VALDES</t>
+  </si>
+  <si>
+    <t>32937909</t>
+  </si>
+  <si>
+    <t>BERTHA MILENA HURTADO CABRERA</t>
+  </si>
+  <si>
+    <t>12642215</t>
+  </si>
+  <si>
+    <t>FREDIS MANUEL RUIZ VILLALBA</t>
+  </si>
+  <si>
+    <t>1143367969</t>
+  </si>
+  <si>
+    <t>ANA CECILIA TUIRAN OLIVEROS</t>
+  </si>
+  <si>
+    <t>45762747</t>
+  </si>
+  <si>
+    <t>NANCY DEL CARMEN MARTINEZ RHENALS</t>
+  </si>
+  <si>
+    <t>23002474</t>
+  </si>
+  <si>
+    <t>BELINDA PUELLO ARROYO</t>
+  </si>
+  <si>
+    <t>1137975631</t>
+  </si>
+  <si>
+    <t>CRISTIAN DAVID CORCHO PESTANA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -887,7 +1034,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4B910A-43FD-EB82-48F0-EC813BE5FEFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D39C9F-ADF2-158C-66C3-8C659DF12E94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1238,8 +1385,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A47E1D2-BC65-457D-8736-61C2A5ACADEA}">
-  <dimension ref="B2:J239"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BFDF0A-B5B5-49B9-988D-D1292163354B}">
+  <dimension ref="B2:J270"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1250,7 +1397,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1263,7 +1410,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1308,7 +1455,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1340,12 +1487,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>9987221</v>
+        <v>11677012</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1356,17 +1503,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="C13" s="5">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="F13" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1393,13 +1540,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1416,10 +1563,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>69728</v>
+        <v>64200</v>
       </c>
       <c r="G16" s="18">
-        <v>1743210</v>
+        <v>1605000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1430,19 +1577,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>64200</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1605000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1453,16 +1600,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>69728</v>
+        <v>30216</v>
       </c>
       <c r="G18" s="18">
         <v>1743210</v>
@@ -1476,19 +1623,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1499,13 +1646,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>69728</v>
@@ -1522,19 +1669,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1545,19 +1692,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1568,13 +1715,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>69728</v>
@@ -1591,19 +1738,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>13789</v>
+        <v>69728</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>1743210</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1614,13 +1761,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>69728</v>
@@ -1637,19 +1784,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1660,19 +1807,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1683,19 +1830,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>27578</v>
+        <v>69728</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>1743210</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1706,13 +1853,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>69728</v>
@@ -1729,19 +1876,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>27578</v>
+        <v>69728</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>1743210</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1752,13 +1899,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>69728</v>
@@ -1775,19 +1922,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>64200</v>
+        <v>69728</v>
       </c>
       <c r="G32" s="18">
-        <v>1605000</v>
+        <v>1743210</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1798,19 +1945,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>64200</v>
+        <v>69728</v>
       </c>
       <c r="G33" s="18">
-        <v>1605000</v>
+        <v>1743210</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1821,19 +1968,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
-        <v>72000</v>
+        <v>69728</v>
       </c>
       <c r="G34" s="18">
-        <v>1800000</v>
+        <v>1743210</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1844,19 +1991,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G35" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1867,19 +2014,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
-        <v>196115</v>
+        <v>69728</v>
       </c>
       <c r="G36" s="18">
-        <v>4902878</v>
+        <v>1743210</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1890,19 +2037,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
-        <v>196115</v>
+        <v>69728</v>
       </c>
       <c r="G37" s="18">
-        <v>4902878</v>
+        <v>1743210</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1913,19 +2060,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
-        <v>27578</v>
+        <v>69728</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>1743210</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1936,19 +2083,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
-        <v>72000</v>
+        <v>69728</v>
       </c>
       <c r="G39" s="18">
-        <v>1800000</v>
+        <v>1743210</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1959,19 +2106,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G40" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1982,19 +2129,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
-        <v>64200</v>
+        <v>69728</v>
       </c>
       <c r="G41" s="18">
-        <v>1605000</v>
+        <v>1743210</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -2005,13 +2152,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>69728</v>
@@ -2028,19 +2175,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
-        <v>20656</v>
+        <v>69728</v>
       </c>
       <c r="G43" s="18">
-        <v>1631043</v>
+        <v>1743210</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2051,19 +2198,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
-        <v>27578</v>
+        <v>69728</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>1743210</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2074,13 +2221,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
         <v>69728</v>
@@ -2097,19 +2244,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F46" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G46" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2120,13 +2267,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F47" s="18">
         <v>69728</v>
@@ -2143,19 +2290,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G48" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2166,19 +2313,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G49" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2189,13 +2336,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>69728</v>
@@ -2212,13 +2359,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>69728</v>
@@ -2235,19 +2382,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G52" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2258,13 +2405,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>69728</v>
@@ -2281,19 +2428,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F54" s="18">
-        <v>40000</v>
+        <v>141587</v>
       </c>
       <c r="G54" s="18">
-        <v>1000000</v>
+        <v>3539678</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2304,19 +2451,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F55" s="18">
-        <v>69728</v>
+        <v>56940</v>
       </c>
       <c r="G55" s="18">
-        <v>1743210</v>
+        <v>1423500</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2327,19 +2474,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G56" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2350,19 +2497,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F57" s="18">
-        <v>69728</v>
+        <v>56940</v>
       </c>
       <c r="G57" s="18">
-        <v>1743210</v>
+        <v>1423500</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2373,19 +2520,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F58" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G58" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2396,19 +2543,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F59" s="18">
-        <v>69728</v>
+        <v>56940</v>
       </c>
       <c r="G59" s="18">
-        <v>1743210</v>
+        <v>1423500</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2419,19 +2566,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F60" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G60" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2442,19 +2589,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F61" s="18">
-        <v>69728</v>
+        <v>46400</v>
       </c>
       <c r="G61" s="18">
-        <v>1743210</v>
+        <v>1160000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2465,19 +2612,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F62" s="18">
-        <v>40000</v>
+        <v>72000</v>
       </c>
       <c r="G62" s="18">
-        <v>1000000</v>
+        <v>1800000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2488,19 +2635,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F63" s="18">
-        <v>42800</v>
+        <v>72000</v>
       </c>
       <c r="G63" s="18">
-        <v>1104026</v>
+        <v>1800000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2511,19 +2658,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F64" s="18">
-        <v>69728</v>
+        <v>196115</v>
       </c>
       <c r="G64" s="18">
-        <v>1743210</v>
+        <v>4902878</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2534,19 +2681,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="F65" s="18">
-        <v>40000</v>
+        <v>196115</v>
       </c>
       <c r="G65" s="18">
-        <v>1000000</v>
+        <v>4902878</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2557,19 +2704,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="F66" s="18">
-        <v>40000</v>
+        <v>64200</v>
       </c>
       <c r="G66" s="18">
-        <v>1000000</v>
+        <v>1605000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2580,19 +2727,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F67" s="18">
-        <v>69728</v>
+        <v>100000</v>
       </c>
       <c r="G67" s="18">
-        <v>1743210</v>
+        <v>2500000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2603,19 +2750,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F68" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G68" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2626,19 +2773,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F69" s="18">
-        <v>69728</v>
+        <v>56940</v>
       </c>
       <c r="G69" s="18">
-        <v>1743210</v>
+        <v>1423500</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2649,19 +2796,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F70" s="18">
-        <v>69728</v>
+        <v>56940</v>
       </c>
       <c r="G70" s="18">
-        <v>1743210</v>
+        <v>1423500</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2672,13 +2819,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F71" s="18">
         <v>40000</v>
@@ -2695,19 +2842,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F72" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G72" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2718,13 +2865,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="F73" s="18">
         <v>40000</v>
@@ -2741,13 +2888,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F74" s="18">
         <v>40000</v>
@@ -2764,19 +2911,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F75" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G75" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2787,13 +2934,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F76" s="18">
         <v>40000</v>
@@ -2810,19 +2957,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F77" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G77" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2833,19 +2980,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F78" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G78" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2856,13 +3003,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="F79" s="18">
         <v>40000</v>
@@ -2879,19 +3026,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="F80" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G80" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2902,13 +3049,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F81" s="18">
         <v>40000</v>
@@ -2925,13 +3072,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F82" s="18">
         <v>40000</v>
@@ -2948,19 +3095,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F83" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G83" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2971,19 +3118,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F84" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G84" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2994,13 +3141,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="F85" s="18">
         <v>40000</v>
@@ -3017,13 +3164,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F86" s="18">
         <v>40000</v>
@@ -3040,19 +3187,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F87" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G87" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3063,13 +3210,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F88" s="18">
         <v>40000</v>
@@ -3086,19 +3233,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="F89" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G89" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3109,13 +3256,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="F90" s="18">
         <v>40000</v>
@@ -3132,19 +3279,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="F91" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G91" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3155,19 +3302,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="F92" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G92" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3178,13 +3325,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="F93" s="18">
         <v>40000</v>
@@ -3201,13 +3348,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F94" s="18">
         <v>40000</v>
@@ -3224,19 +3371,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F95" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G95" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3247,13 +3394,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F96" s="18">
         <v>40000</v>
@@ -3270,19 +3417,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="F97" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G97" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3293,13 +3440,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F98" s="18">
         <v>40000</v>
@@ -3316,19 +3463,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="F99" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G99" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3339,13 +3486,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="F100" s="18">
         <v>40000</v>
@@ -3362,19 +3509,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="F101" s="18">
-        <v>30216</v>
+        <v>40000</v>
       </c>
       <c r="G101" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3385,13 +3532,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="F102" s="18">
         <v>40000</v>
@@ -3408,13 +3555,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="F103" s="18">
         <v>40000</v>
@@ -3431,13 +3578,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="F104" s="18">
         <v>40000</v>
@@ -3454,13 +3601,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="F105" s="18">
         <v>40000</v>
@@ -3477,13 +3624,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="F106" s="18">
         <v>40000</v>
@@ -3500,13 +3647,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="F107" s="18">
         <v>40000</v>
@@ -3523,13 +3670,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="F108" s="18">
         <v>40000</v>
@@ -3546,13 +3693,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F109" s="18">
         <v>40000</v>
@@ -3569,13 +3716,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="F110" s="18">
         <v>40000</v>
@@ -3592,13 +3739,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="F111" s="18">
         <v>40000</v>
@@ -3615,13 +3762,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="F112" s="18">
         <v>40000</v>
@@ -3638,13 +3785,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F113" s="18">
         <v>40000</v>
@@ -3661,19 +3808,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="F114" s="18">
-        <v>33600</v>
+        <v>40000</v>
       </c>
       <c r="G114" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3684,13 +3831,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="F115" s="18">
         <v>40000</v>
@@ -3707,13 +3854,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="F116" s="18">
         <v>40000</v>
@@ -3730,13 +3877,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="F117" s="18">
         <v>40000</v>
@@ -3753,13 +3900,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="F118" s="18">
         <v>40000</v>
@@ -3776,13 +3923,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="F119" s="18">
         <v>40000</v>
@@ -3799,13 +3946,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="F120" s="18">
         <v>40000</v>
@@ -3822,13 +3969,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="F121" s="18">
         <v>40000</v>
@@ -3845,13 +3992,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="F122" s="18">
         <v>40000</v>
@@ -3868,13 +4015,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="F123" s="18">
         <v>40000</v>
@@ -3891,19 +4038,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="F124" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G124" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3914,13 +4061,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="F125" s="18">
         <v>40000</v>
@@ -3937,19 +4084,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="F126" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G126" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3960,13 +4107,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="F127" s="18">
         <v>40000</v>
@@ -3983,19 +4130,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="F128" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G128" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -4003,22 +4150,22 @@
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="F129" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G129" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -4029,13 +4176,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="F130" s="18">
         <v>40000</v>
@@ -4052,13 +4199,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="F131" s="18">
         <v>40000</v>
@@ -4075,19 +4222,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="F132" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G132" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4098,19 +4245,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="F133" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G133" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4121,13 +4268,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="F134" s="18">
         <v>40000</v>
@@ -4144,19 +4291,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="F135" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G135" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4167,13 +4314,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="F136" s="18">
         <v>40000</v>
@@ -4190,13 +4337,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="F137" s="18">
         <v>40000</v>
@@ -4213,19 +4360,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="F138" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G138" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4236,19 +4383,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="F139" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G139" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4259,13 +4406,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="F140" s="18">
         <v>40000</v>
@@ -4282,19 +4429,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="F141" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G141" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4305,13 +4452,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="F142" s="18">
         <v>40000</v>
@@ -4328,13 +4475,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="F143" s="18">
         <v>40000</v>
@@ -4351,19 +4498,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F144" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G144" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4374,19 +4521,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="F145" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G145" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4397,13 +4544,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="F146" s="18">
         <v>40000</v>
@@ -4420,19 +4567,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="F147" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G147" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4443,13 +4590,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="F148" s="18">
         <v>40000</v>
@@ -4466,13 +4613,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="F149" s="18">
         <v>40000</v>
@@ -4489,19 +4636,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F150" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G150" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4512,19 +4659,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="F151" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G151" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4535,13 +4682,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="F152" s="18">
         <v>40000</v>
@@ -4558,19 +4705,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="F153" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G153" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4581,13 +4728,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="F154" s="18">
         <v>40000</v>
@@ -4604,19 +4751,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="F155" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G155" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4627,13 +4774,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="F156" s="18">
         <v>40000</v>
@@ -4650,19 +4797,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="F157" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G157" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4673,13 +4820,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="F158" s="18">
         <v>40000</v>
@@ -4696,19 +4843,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="F159" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G159" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4719,13 +4866,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F160" s="18">
         <v>40000</v>
@@ -4742,13 +4889,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="F161" s="18">
         <v>40000</v>
@@ -4765,19 +4912,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="F162" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G162" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4788,19 +4935,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="F163" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G163" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4811,13 +4958,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="F164" s="18">
         <v>40000</v>
@@ -4834,13 +4981,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="F165" s="18">
         <v>40000</v>
@@ -4857,19 +5004,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="F166" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G166" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4880,19 +5027,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="F167" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G167" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4903,13 +5050,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="F168" s="18">
         <v>40000</v>
@@ -4926,19 +5073,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="F169" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G169" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4949,13 +5096,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="F170" s="18">
         <v>40000</v>
@@ -4972,13 +5119,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="F171" s="18">
         <v>40000</v>
@@ -4995,19 +5142,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="F172" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G172" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -5018,19 +5165,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F173" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G173" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -5041,13 +5188,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F174" s="18">
         <v>40000</v>
@@ -5064,13 +5211,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F175" s="18">
         <v>40000</v>
@@ -5087,19 +5234,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="F176" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G176" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5110,19 +5257,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="F177" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G177" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5133,13 +5280,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="F178" s="18">
         <v>40000</v>
@@ -5156,13 +5303,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="F179" s="18">
         <v>40000</v>
@@ -5179,13 +5326,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F180" s="18">
         <v>36341</v>
@@ -5202,19 +5349,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F181" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G181" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5225,13 +5372,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F182" s="18">
         <v>36341</v>
@@ -5248,19 +5395,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F183" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G183" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5271,13 +5418,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F184" s="18">
         <v>36341</v>
@@ -5294,19 +5441,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="F185" s="18">
-        <v>36341</v>
+        <v>42800</v>
       </c>
       <c r="G185" s="18">
-        <v>908526</v>
+        <v>1104026</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5317,19 +5464,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="F186" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G186" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5340,19 +5487,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="F187" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G187" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5363,19 +5510,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="F188" s="18">
-        <v>36341</v>
+        <v>7592</v>
       </c>
       <c r="G188" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5386,19 +5533,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="F189" s="18">
-        <v>36341</v>
+        <v>56940</v>
       </c>
       <c r="G189" s="18">
-        <v>908526</v>
+        <v>689455</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5409,19 +5556,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="F190" s="18">
-        <v>40000</v>
+        <v>27578</v>
       </c>
       <c r="G190" s="18">
-        <v>1000000</v>
+        <v>737717</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5432,19 +5579,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="F191" s="18">
-        <v>36341</v>
+        <v>27578</v>
       </c>
       <c r="G191" s="18">
-        <v>908526</v>
+        <v>737717</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5455,19 +5602,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D192" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E192" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D192" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E192" s="16" t="s">
-        <v>124</v>
-      </c>
       <c r="F192" s="18">
-        <v>40000</v>
+        <v>27578</v>
       </c>
       <c r="G192" s="18">
-        <v>1000000</v>
+        <v>737717</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5478,19 +5625,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="F193" s="18">
-        <v>40000</v>
+        <v>27578</v>
       </c>
       <c r="G193" s="18">
-        <v>1000000</v>
+        <v>737717</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5501,19 +5648,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="F194" s="18">
-        <v>36341</v>
+        <v>13789</v>
       </c>
       <c r="G194" s="18">
-        <v>908526</v>
+        <v>737717</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5524,19 +5671,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="F195" s="18">
-        <v>36341</v>
+        <v>56940</v>
       </c>
       <c r="G195" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5547,19 +5694,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="F196" s="18">
-        <v>40000</v>
+        <v>20656</v>
       </c>
       <c r="G196" s="18">
-        <v>1000000</v>
+        <v>737717</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5570,19 +5717,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="F197" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G197" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5593,19 +5740,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="F198" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G198" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5616,19 +5763,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="F199" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G199" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5639,19 +5786,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="F200" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G200" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5662,19 +5809,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="F201" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G201" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5685,19 +5832,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="F202" s="18">
-        <v>40000</v>
+        <v>39866</v>
       </c>
       <c r="G202" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5708,19 +5855,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="F203" s="18">
-        <v>36341</v>
+        <v>56940</v>
       </c>
       <c r="G203" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5731,19 +5878,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F204" s="18">
-        <v>40000</v>
+        <v>33600</v>
       </c>
       <c r="G204" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5754,19 +5901,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="F205" s="18">
-        <v>39866</v>
+        <v>36341</v>
       </c>
       <c r="G205" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5777,13 +5924,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="F206" s="18">
         <v>36341</v>
@@ -5800,19 +5947,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="F207" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G207" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5823,19 +5970,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="F208" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G208" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5846,19 +5993,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="F209" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G209" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5869,13 +6016,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E210" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="D210" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E210" s="16" t="s">
-        <v>134</v>
       </c>
       <c r="F210" s="18">
         <v>36341</v>
@@ -5892,19 +6039,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="F211" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G211" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5915,13 +6062,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D212" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E212" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="E212" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="F212" s="18">
         <v>36341</v>
@@ -5938,19 +6085,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="F213" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G213" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5961,13 +6108,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="F214" s="18">
         <v>36341</v>
@@ -5984,19 +6131,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="F215" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G215" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -6007,19 +6154,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="F216" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G216" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -6030,19 +6177,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="F217" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G217" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -6053,13 +6200,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="F218" s="18">
         <v>36341</v>
@@ -6076,19 +6223,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="F219" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G219" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6099,13 +6246,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="F220" s="18">
         <v>36341</v>
@@ -6122,19 +6269,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="F221" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G221" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6145,19 +6292,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="F222" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G222" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6168,13 +6315,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="F223" s="18">
         <v>36341</v>
@@ -6191,19 +6338,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="F224" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G224" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6214,19 +6361,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="F225" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G225" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6237,13 +6384,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="F226" s="18">
         <v>36341</v>
@@ -6260,13 +6407,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="F227" s="18">
         <v>36341</v>
@@ -6283,19 +6430,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="F228" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G228" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6306,13 +6453,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="F229" s="18">
         <v>36341</v>
@@ -6329,19 +6476,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="F230" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G230" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6352,19 +6499,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="F231" s="18">
-        <v>56940</v>
+        <v>36341</v>
       </c>
       <c r="G231" s="18">
-        <v>1423500</v>
+        <v>908526</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6375,13 +6522,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="F232" s="18">
         <v>36341</v>
@@ -6394,56 +6541,769 @@
       <c r="J232" s="20"/>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B233" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C233" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D233" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E233" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F233" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G233" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H233" s="25"/>
-      <c r="I233" s="25"/>
-      <c r="J233" s="26"/>
+      <c r="B233" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D233" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E233" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F233" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G233" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H233" s="19"/>
+      <c r="I233" s="19"/>
+      <c r="J233" s="20"/>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B234" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D234" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E234" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F234" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G234" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H234" s="19"/>
+      <c r="I234" s="19"/>
+      <c r="J234" s="20"/>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B235" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E235" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F235" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G235" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H235" s="19"/>
+      <c r="I235" s="19"/>
+      <c r="J235" s="20"/>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B236" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D236" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E236" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F236" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G236" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H236" s="19"/>
+      <c r="I236" s="19"/>
+      <c r="J236" s="20"/>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B237" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D237" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E237" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F237" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G237" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H237" s="19"/>
+      <c r="I237" s="19"/>
+      <c r="J237" s="20"/>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B238" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C238" s="32"/>
-      <c r="H238" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I238" s="1"/>
-      <c r="J238" s="1"/>
+      <c r="B238" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D238" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E238" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F238" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G238" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H238" s="19"/>
+      <c r="I238" s="19"/>
+      <c r="J238" s="20"/>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B239" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="C239" s="32"/>
-      <c r="H239" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I239" s="1"/>
-      <c r="J239" s="1"/>
+      <c r="B239" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D239" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E239" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F239" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G239" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H239" s="19"/>
+      <c r="I239" s="19"/>
+      <c r="J239" s="20"/>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B240" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D240" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E240" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F240" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G240" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H240" s="19"/>
+      <c r="I240" s="19"/>
+      <c r="J240" s="20"/>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B241" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D241" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E241" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F241" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G241" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H241" s="19"/>
+      <c r="I241" s="19"/>
+      <c r="J241" s="20"/>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B242" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D242" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E242" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F242" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G242" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H242" s="19"/>
+      <c r="I242" s="19"/>
+      <c r="J242" s="20"/>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B243" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D243" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E243" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F243" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G243" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H243" s="19"/>
+      <c r="I243" s="19"/>
+      <c r="J243" s="20"/>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B244" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E244" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F244" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G244" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H244" s="19"/>
+      <c r="I244" s="19"/>
+      <c r="J244" s="20"/>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B245" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E245" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F245" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G245" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H245" s="19"/>
+      <c r="I245" s="19"/>
+      <c r="J245" s="20"/>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B246" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D246" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E246" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F246" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G246" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H246" s="19"/>
+      <c r="I246" s="19"/>
+      <c r="J246" s="20"/>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B247" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E247" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F247" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G247" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H247" s="19"/>
+      <c r="I247" s="19"/>
+      <c r="J247" s="20"/>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B248" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D248" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E248" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F248" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G248" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H248" s="19"/>
+      <c r="I248" s="19"/>
+      <c r="J248" s="20"/>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B249" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E249" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F249" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G249" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H249" s="19"/>
+      <c r="I249" s="19"/>
+      <c r="J249" s="20"/>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B250" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D250" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E250" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F250" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G250" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H250" s="19"/>
+      <c r="I250" s="19"/>
+      <c r="J250" s="20"/>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B251" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D251" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E251" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F251" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G251" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H251" s="19"/>
+      <c r="I251" s="19"/>
+      <c r="J251" s="20"/>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B252" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E252" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F252" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G252" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H252" s="19"/>
+      <c r="I252" s="19"/>
+      <c r="J252" s="20"/>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B253" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D253" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E253" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F253" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G253" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H253" s="19"/>
+      <c r="I253" s="19"/>
+      <c r="J253" s="20"/>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B254" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E254" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F254" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G254" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H254" s="19"/>
+      <c r="I254" s="19"/>
+      <c r="J254" s="20"/>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B255" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D255" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E255" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F255" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G255" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H255" s="19"/>
+      <c r="I255" s="19"/>
+      <c r="J255" s="20"/>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B256" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D256" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E256" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F256" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G256" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H256" s="19"/>
+      <c r="I256" s="19"/>
+      <c r="J256" s="20"/>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B257" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D257" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E257" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F257" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G257" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H257" s="19"/>
+      <c r="I257" s="19"/>
+      <c r="J257" s="20"/>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B258" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D258" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E258" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F258" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G258" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H258" s="19"/>
+      <c r="I258" s="19"/>
+      <c r="J258" s="20"/>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B259" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D259" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E259" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F259" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G259" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H259" s="19"/>
+      <c r="I259" s="19"/>
+      <c r="J259" s="20"/>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B260" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D260" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E260" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F260" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G260" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H260" s="19"/>
+      <c r="I260" s="19"/>
+      <c r="J260" s="20"/>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B261" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D261" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E261" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F261" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G261" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H261" s="19"/>
+      <c r="I261" s="19"/>
+      <c r="J261" s="20"/>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B262" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C262" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D262" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E262" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F262" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G262" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H262" s="19"/>
+      <c r="I262" s="19"/>
+      <c r="J262" s="20"/>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B263" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D263" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E263" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F263" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G263" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H263" s="19"/>
+      <c r="I263" s="19"/>
+      <c r="J263" s="20"/>
+    </row>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B264" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D264" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E264" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F264" s="24">
+        <v>51246</v>
+      </c>
+      <c r="G264" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H264" s="25"/>
+      <c r="I264" s="25"/>
+      <c r="J264" s="26"/>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B269" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C269" s="32"/>
+      <c r="H269" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I269" s="1"/>
+      <c r="J269" s="1"/>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B270" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C270" s="32"/>
+      <c r="H270" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="H239:J239"/>
-    <mergeCell ref="H238:J238"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="H270:J270"/>
+    <mergeCell ref="H269:J269"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9000366941.xlsx
+++ b/Data/EC/NIT-9000366941.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A098DDA3-45A5-4493-8338-5FF5D6D05C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1E1D8DE-8FF8-4DCE-95BC-5CF1DD17C1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A518B0A5-B9D3-4AB2-A6E3-4BD826E4300C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2CFF4890-FCC5-4134-8669-2C8A00ABB885}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="161">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,562 +65,427 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73111414</t>
+  </si>
+  <si>
+    <t>JOAQUIN FERNANDO PUELLO DAVID</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1047384362</t>
+  </si>
+  <si>
+    <t>ROBER GODOY CABEZA</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>45478789</t>
+  </si>
+  <si>
+    <t>NIEVES ISABEL VALDERRAMA CANTILLO</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
     <t>45434393</t>
   </si>
   <si>
     <t>ESTHER VERGARA HEREDIA</t>
   </si>
   <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>22492180</t>
+  </si>
+  <si>
+    <t>CLARA ELENA PEREZ ZAMBRANO</t>
+  </si>
+  <si>
+    <t>1067867199</t>
+  </si>
+  <si>
+    <t>STEFANY JOHANA ARTEAGA MARQUEZ</t>
+  </si>
+  <si>
+    <t>45763963</t>
+  </si>
+  <si>
+    <t>MARIA ENRIQUETA GOMEZ NARVAEZ</t>
+  </si>
+  <si>
     <t>1702</t>
   </si>
   <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>73111414</t>
-  </si>
-  <si>
-    <t>JOAQUIN FERNANDO PUELLO DAVID</t>
+    <t>1050960740</t>
+  </si>
+  <si>
+    <t>ANA MILENA ACEVEDO BOLAÑO</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>73142382</t>
+  </si>
+  <si>
+    <t>LEONARDO BLANCO NAVARRO</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
   </si>
   <si>
     <t>1906</t>
   </si>
   <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>22803970</t>
-  </si>
-  <si>
-    <t>LEDIS BAZA VALDERRAMA</t>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>20265043</t>
+  </si>
+  <si>
+    <t>MANUEL ESTEBAN BAZA VALDERRAMA</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>1126257688</t>
+  </si>
+  <si>
+    <t>LILIANA COROMOTO REYES SUÃ?IGA</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>997722825021981</t>
+  </si>
+  <si>
+    <t>NORIELSY DEL CARMEN TERAN BERRIOS</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>1050974463</t>
+  </si>
+  <si>
+    <t>NELCY MARIA FIGUEROA QUINTANA</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>30771926</t>
-  </si>
-  <si>
-    <t>SILVINA DE JESUS ALCALA PEREZ</t>
-  </si>
-  <si>
-    <t>45558961</t>
-  </si>
-  <si>
-    <t>SADITH MARIA GIL MEJIA</t>
-  </si>
-  <si>
     <t>45592551</t>
   </si>
   <si>
     <t>YACKELINE ALTAMIRANDA PUELLO</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>23002755</t>
-  </si>
-  <si>
-    <t>BLANCA ISABEL GOMEZ GALINDO</t>
-  </si>
-  <si>
-    <t>45484030</t>
-  </si>
-  <si>
-    <t>MARIBEL ETILDA ROSA PACHECO ROBLES</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>1002306447</t>
-  </si>
-  <si>
-    <t>CARLOS DAVID MENDOZA RAMIREZ</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>22492180</t>
-  </si>
-  <si>
-    <t>CLARA ELENA PEREZ ZAMBRANO</t>
-  </si>
-  <si>
-    <t>1067867199</t>
-  </si>
-  <si>
-    <t>STEFANY JOHANA ARTEAGA MARQUEZ</t>
-  </si>
-  <si>
-    <t>45763963</t>
-  </si>
-  <si>
-    <t>MARIA ENRIQUETA GOMEZ NARVAEZ</t>
-  </si>
-  <si>
-    <t>45373232</t>
-  </si>
-  <si>
-    <t>MOIRA BARRIOS REYES</t>
-  </si>
-  <si>
-    <t>45591744</t>
-  </si>
-  <si>
-    <t>NARLEY ESTHER RAMOS ANGULO</t>
-  </si>
-  <si>
-    <t>1050949960</t>
-  </si>
-  <si>
-    <t>PATRICIA DEL CARMEN CANTILLO ZABALETA</t>
-  </si>
-  <si>
-    <t>45519516</t>
-  </si>
-  <si>
-    <t>ARELIS VASQUEZ MAZA</t>
-  </si>
-  <si>
-    <t>1047384362</t>
-  </si>
-  <si>
-    <t>ROBER GODOY CABEZA</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>45755922</t>
-  </si>
-  <si>
-    <t>DUBYS ESTER CABEZA CEDEÑO</t>
-  </si>
-  <si>
-    <t>73142382</t>
-  </si>
-  <si>
-    <t>LEONARDO BLANCO NAVARRO</t>
-  </si>
-  <si>
-    <t>45593662</t>
-  </si>
-  <si>
-    <t>JANINA PATRICIA PINTO AVILA</t>
-  </si>
-  <si>
-    <t>1101450586</t>
-  </si>
-  <si>
-    <t>JEISY BERRIO ALVAREZ</t>
-  </si>
-  <si>
-    <t>1051443460</t>
-  </si>
-  <si>
-    <t>MARIA DE LOS ANGELES GOMEZ REYES</t>
-  </si>
-  <si>
-    <t>45482963</t>
-  </si>
-  <si>
-    <t>DORIS VALDELAMAR RIVERA</t>
-  </si>
-  <si>
-    <t>45478789</t>
-  </si>
-  <si>
-    <t>NIEVES ISABEL VALDERRAMA CANTILLO</t>
-  </si>
-  <si>
-    <t>45528875</t>
-  </si>
-  <si>
-    <t>GUMERCINDA OVIEDO BARRIOS</t>
-  </si>
-  <si>
-    <t>1050960740</t>
-  </si>
-  <si>
-    <t>ANA MILENA ACEVEDO BOLAÑO</t>
-  </si>
-  <si>
-    <t>1050974463</t>
-  </si>
-  <si>
-    <t>NELCY MARIA FIGUEROA QUINTANA</t>
-  </si>
-  <si>
-    <t>1050970703</t>
-  </si>
-  <si>
-    <t>KEIVER ANDRES CASTELLAR MONTALVO</t>
-  </si>
-  <si>
-    <t>20265043</t>
-  </si>
-  <si>
-    <t>MANUEL ESTEBAN BAZA VALDERRAMA</t>
-  </si>
-  <si>
-    <t>1126257688</t>
-  </si>
-  <si>
-    <t>LILIANA COROMOTO REYES SUÃ?IGA</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>997722825021981</t>
-  </si>
-  <si>
-    <t>NORIELSY DEL CARMEN TERAN BERRIOS</t>
-  </si>
-  <si>
-    <t>32774472</t>
-  </si>
-  <si>
-    <t>GEORGINA ALVAREZ VALDES</t>
-  </si>
-  <si>
-    <t>32937909</t>
-  </si>
-  <si>
-    <t>BERTHA MILENA HURTADO CABRERA</t>
-  </si>
-  <si>
-    <t>12642215</t>
-  </si>
-  <si>
-    <t>FREDIS MANUEL RUIZ VILLALBA</t>
-  </si>
-  <si>
-    <t>1143367969</t>
-  </si>
-  <si>
-    <t>ANA CECILIA TUIRAN OLIVEROS</t>
-  </si>
-  <si>
-    <t>45762747</t>
-  </si>
-  <si>
-    <t>NANCY DEL CARMEN MARTINEZ RHENALS</t>
-  </si>
-  <si>
-    <t>23002474</t>
-  </si>
-  <si>
-    <t>BELINDA PUELLO ARROYO</t>
-  </si>
-  <si>
-    <t>1137975631</t>
-  </si>
-  <si>
-    <t>CRISTIAN DAVID CORCHO PESTANA</t>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>73560810</t>
+  </si>
+  <si>
+    <t>RAFAEL ENRIQUE PEREZ PAEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -719,7 +584,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -732,9 +599,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -934,23 +799,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -978,10 +843,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1034,7 +899,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D39C9F-ADF2-158C-66C3-8C659DF12E94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC2AA96-400B-6331-8BC4-ECDA5946DE19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1385,8 +1250,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BFDF0A-B5B5-49B9-988D-D1292163354B}">
-  <dimension ref="B2:J270"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76031A31-3089-4A05-B559-DF3A38CDF533}">
+  <dimension ref="B2:J244"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1397,7 +1262,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1410,7 +1275,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1455,7 +1320,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1487,12 +1352,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>11677012</v>
+        <v>10191149</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1503,17 +1368,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="C13" s="5">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1540,13 +1405,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1563,10 +1428,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>64200</v>
+        <v>69728</v>
       </c>
       <c r="G16" s="18">
-        <v>1605000</v>
+        <v>1743210</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1577,19 +1442,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>64200</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>1605000</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1600,16 +1465,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>30216</v>
+        <v>69728</v>
       </c>
       <c r="G18" s="18">
         <v>1743210</v>
@@ -1623,19 +1488,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F19" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1646,13 +1511,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>69728</v>
@@ -1669,19 +1534,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1692,13 +1557,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>69728</v>
@@ -1715,19 +1580,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1738,13 +1603,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>69728</v>
@@ -1761,19 +1626,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1784,19 +1649,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F26" s="18">
-        <v>69728</v>
+        <v>13789</v>
       </c>
       <c r="G26" s="18">
-        <v>1743210</v>
+        <v>737717</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1807,13 +1672,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
         <v>69728</v>
@@ -1830,19 +1695,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1853,19 +1718,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>69728</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>1743210</v>
+        <v>737717</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1876,19 +1741,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
-        <v>69728</v>
+        <v>64200</v>
       </c>
       <c r="G30" s="18">
-        <v>1743210</v>
+        <v>1605000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1899,13 +1764,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
         <v>69728</v>
@@ -1922,19 +1787,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
-        <v>69728</v>
+        <v>72000</v>
       </c>
       <c r="G32" s="18">
-        <v>1743210</v>
+        <v>3582000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1945,19 +1810,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
-        <v>69728</v>
+        <v>196115</v>
       </c>
       <c r="G33" s="18">
-        <v>1743210</v>
+        <v>4902878</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1968,19 +1833,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
-        <v>69728</v>
+        <v>64200</v>
       </c>
       <c r="G34" s="18">
-        <v>1743210</v>
+        <v>1605000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1991,19 +1856,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -2014,19 +1879,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>69728</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
-        <v>1743210</v>
+        <v>737717</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -2037,19 +1902,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F37" s="18">
-        <v>69728</v>
+        <v>64200</v>
       </c>
       <c r="G37" s="18">
-        <v>1743210</v>
+        <v>1605000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -2060,13 +1925,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F38" s="18">
         <v>69728</v>
@@ -2083,19 +1948,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F39" s="18">
-        <v>69728</v>
+        <v>72000</v>
       </c>
       <c r="G39" s="18">
-        <v>1743210</v>
+        <v>3582000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -2106,19 +1971,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F40" s="18">
-        <v>69728</v>
+        <v>196115</v>
       </c>
       <c r="G40" s="18">
-        <v>1743210</v>
+        <v>4902878</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -2129,19 +1994,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F41" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -2152,19 +2017,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F42" s="18">
-        <v>69728</v>
+        <v>27578</v>
       </c>
       <c r="G42" s="18">
-        <v>1743210</v>
+        <v>737717</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -2175,19 +2040,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F43" s="18">
-        <v>69728</v>
+        <v>20656</v>
       </c>
       <c r="G43" s="18">
-        <v>1743210</v>
+        <v>737717</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2198,13 +2063,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F44" s="18">
         <v>69728</v>
@@ -2221,19 +2086,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F45" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G45" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2244,19 +2109,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F46" s="18">
-        <v>69728</v>
+        <v>27578</v>
       </c>
       <c r="G46" s="18">
-        <v>1743210</v>
+        <v>737717</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2267,13 +2132,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F47" s="18">
         <v>69728</v>
@@ -2290,19 +2155,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F48" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G48" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2313,13 +2178,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F49" s="18">
         <v>69728</v>
@@ -2336,19 +2201,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F50" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G50" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2359,13 +2224,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F51" s="18">
         <v>69728</v>
@@ -2382,19 +2247,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F52" s="18">
-        <v>69728</v>
+        <v>40000</v>
       </c>
       <c r="G52" s="18">
-        <v>1743210</v>
+        <v>1000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2405,13 +2270,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F53" s="18">
         <v>69728</v>
@@ -2428,19 +2293,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F54" s="18">
-        <v>141587</v>
+        <v>40000</v>
       </c>
       <c r="G54" s="18">
-        <v>3539678</v>
+        <v>1000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2451,19 +2316,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F55" s="18">
-        <v>56940</v>
+        <v>69728</v>
       </c>
       <c r="G55" s="18">
-        <v>1423500</v>
+        <v>1743210</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2474,19 +2339,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F56" s="18">
-        <v>56940</v>
+        <v>40000</v>
       </c>
       <c r="G56" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2497,19 +2362,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F57" s="18">
-        <v>56940</v>
+        <v>69728</v>
       </c>
       <c r="G57" s="18">
-        <v>1423500</v>
+        <v>1743210</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2520,19 +2385,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F58" s="18">
-        <v>56940</v>
+        <v>40000</v>
       </c>
       <c r="G58" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2543,19 +2408,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F59" s="18">
-        <v>56940</v>
+        <v>69728</v>
       </c>
       <c r="G59" s="18">
-        <v>1423500</v>
+        <v>1743210</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2566,19 +2431,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F60" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G60" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2589,19 +2454,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F61" s="18">
-        <v>46400</v>
+        <v>69728</v>
       </c>
       <c r="G61" s="18">
-        <v>1160000</v>
+        <v>1743210</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2612,19 +2477,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F62" s="18">
-        <v>72000</v>
+        <v>40000</v>
       </c>
       <c r="G62" s="18">
-        <v>1800000</v>
+        <v>1000000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2635,19 +2500,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F63" s="18">
-        <v>72000</v>
+        <v>69728</v>
       </c>
       <c r="G63" s="18">
-        <v>1800000</v>
+        <v>1743210</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2658,19 +2523,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F64" s="18">
-        <v>196115</v>
+        <v>40000</v>
       </c>
       <c r="G64" s="18">
-        <v>4902878</v>
+        <v>1000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2681,19 +2546,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F65" s="18">
-        <v>196115</v>
+        <v>42800</v>
       </c>
       <c r="G65" s="18">
-        <v>4902878</v>
+        <v>1104026</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2704,19 +2569,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F66" s="18">
-        <v>64200</v>
+        <v>69728</v>
       </c>
       <c r="G66" s="18">
-        <v>1605000</v>
+        <v>1743210</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2727,19 +2592,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F67" s="18">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="G67" s="18">
-        <v>2500000</v>
+        <v>1000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2750,19 +2615,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F68" s="18">
-        <v>56940</v>
+        <v>69728</v>
       </c>
       <c r="G68" s="18">
-        <v>1423500</v>
+        <v>1743210</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2773,19 +2638,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F69" s="18">
-        <v>56940</v>
+        <v>40000</v>
       </c>
       <c r="G69" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2796,19 +2661,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F70" s="18">
-        <v>56940</v>
+        <v>69728</v>
       </c>
       <c r="G70" s="18">
-        <v>1423500</v>
+        <v>1743210</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2819,13 +2684,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F71" s="18">
         <v>40000</v>
@@ -2842,19 +2707,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F72" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G72" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2865,13 +2730,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="F73" s="18">
         <v>40000</v>
@@ -2888,19 +2753,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="F74" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G74" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2911,13 +2776,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="F75" s="18">
         <v>40000</v>
@@ -2934,19 +2799,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F76" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G76" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2957,13 +2822,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F77" s="18">
         <v>40000</v>
@@ -2980,19 +2845,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="F78" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G78" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -3003,13 +2868,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="F79" s="18">
         <v>40000</v>
@@ -3026,19 +2891,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F80" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G80" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -3049,13 +2914,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="F81" s="18">
         <v>40000</v>
@@ -3072,19 +2937,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F82" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G82" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -3095,13 +2960,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="F83" s="18">
         <v>40000</v>
@@ -3118,19 +2983,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="F84" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G84" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -3141,13 +3006,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F85" s="18">
         <v>40000</v>
@@ -3164,19 +3029,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F86" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G86" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -3187,13 +3052,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F87" s="18">
         <v>40000</v>
@@ -3210,19 +3075,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="F88" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G88" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3233,13 +3098,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="F89" s="18">
         <v>40000</v>
@@ -3256,19 +3121,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="F90" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G90" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3279,13 +3144,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="F91" s="18">
         <v>40000</v>
@@ -3302,19 +3167,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="F92" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G92" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3325,13 +3190,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="F93" s="18">
         <v>40000</v>
@@ -3348,19 +3213,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="F94" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G94" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3371,13 +3236,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="F95" s="18">
         <v>40000</v>
@@ -3394,19 +3259,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F96" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G96" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3417,13 +3282,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="F97" s="18">
         <v>40000</v>
@@ -3440,19 +3305,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="F98" s="18">
-        <v>40000</v>
+        <v>69728</v>
       </c>
       <c r="G98" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3463,13 +3328,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="F99" s="18">
         <v>40000</v>
@@ -3486,19 +3351,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="F100" s="18">
-        <v>40000</v>
+        <v>30216</v>
       </c>
       <c r="G100" s="18">
-        <v>1000000</v>
+        <v>1743210</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3509,13 +3374,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="F101" s="18">
         <v>40000</v>
@@ -3532,13 +3397,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="F102" s="18">
         <v>40000</v>
@@ -3555,13 +3420,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="F103" s="18">
         <v>40000</v>
@@ -3578,13 +3443,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="F104" s="18">
         <v>40000</v>
@@ -3601,13 +3466,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="F105" s="18">
         <v>40000</v>
@@ -3624,13 +3489,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="F106" s="18">
         <v>40000</v>
@@ -3647,13 +3512,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="F107" s="18">
         <v>40000</v>
@@ -3670,13 +3535,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="F108" s="18">
         <v>40000</v>
@@ -3693,13 +3558,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="F109" s="18">
         <v>40000</v>
@@ -3716,13 +3581,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="F110" s="18">
         <v>40000</v>
@@ -3739,13 +3604,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="F111" s="18">
         <v>40000</v>
@@ -3762,13 +3627,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="F112" s="18">
         <v>40000</v>
@@ -3785,13 +3650,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="F113" s="18">
         <v>40000</v>
@@ -3808,19 +3673,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="F114" s="18">
-        <v>40000</v>
+        <v>33600</v>
       </c>
       <c r="G114" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3831,13 +3696,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="F115" s="18">
         <v>40000</v>
@@ -3854,13 +3719,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="F116" s="18">
         <v>40000</v>
@@ -3877,13 +3742,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="F117" s="18">
         <v>40000</v>
@@ -3900,13 +3765,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="F118" s="18">
         <v>40000</v>
@@ -3923,13 +3788,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="F119" s="18">
         <v>40000</v>
@@ -3946,13 +3811,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D120" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="F120" s="18">
         <v>40000</v>
@@ -3969,13 +3834,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="F121" s="18">
         <v>40000</v>
@@ -3992,13 +3857,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="F122" s="18">
         <v>40000</v>
@@ -4015,13 +3880,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="F123" s="18">
         <v>40000</v>
@@ -4038,13 +3903,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="F124" s="18">
         <v>40000</v>
@@ -4061,19 +3926,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="F125" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G125" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -4084,13 +3949,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="F126" s="18">
         <v>40000</v>
@@ -4107,19 +3972,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="F127" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G127" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -4130,13 +3995,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="F128" s="18">
         <v>40000</v>
@@ -4153,19 +4018,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="F129" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G129" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -4173,22 +4038,22 @@
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="F130" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G130" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4199,13 +4064,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="F131" s="18">
         <v>40000</v>
@@ -4222,19 +4087,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="F132" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G132" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4245,13 +4110,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="F133" s="18">
         <v>40000</v>
@@ -4268,19 +4133,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="F134" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G134" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4291,13 +4156,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="F135" s="18">
         <v>40000</v>
@@ -4314,19 +4179,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="F136" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G136" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4337,13 +4202,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="F137" s="18">
         <v>40000</v>
@@ -4360,19 +4225,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="F138" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G138" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4383,13 +4248,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="F139" s="18">
         <v>40000</v>
@@ -4406,19 +4271,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="F140" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G140" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4429,13 +4294,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="F141" s="18">
         <v>40000</v>
@@ -4452,19 +4317,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="F142" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G142" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4475,13 +4340,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="F143" s="18">
         <v>40000</v>
@@ -4498,19 +4363,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F144" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G144" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4521,13 +4386,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="F145" s="18">
         <v>40000</v>
@@ -4544,19 +4409,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="F146" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G146" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4567,13 +4432,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="F147" s="18">
         <v>40000</v>
@@ -4590,19 +4455,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="F148" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G148" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4613,13 +4478,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="F149" s="18">
         <v>40000</v>
@@ -4636,19 +4501,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F150" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G150" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4659,13 +4524,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="F151" s="18">
         <v>40000</v>
@@ -4682,19 +4547,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="F152" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G152" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4705,13 +4570,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="F153" s="18">
         <v>40000</v>
@@ -4728,19 +4593,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="F154" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G154" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4751,13 +4616,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="F155" s="18">
         <v>40000</v>
@@ -4774,19 +4639,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="F156" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G156" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4797,13 +4662,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F157" s="18">
         <v>40000</v>
@@ -4820,19 +4685,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="F158" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G158" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4843,13 +4708,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="F159" s="18">
         <v>40000</v>
@@ -4866,19 +4731,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="F160" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G160" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4889,13 +4754,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="F161" s="18">
         <v>40000</v>
@@ -4912,19 +4777,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="F162" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G162" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4935,13 +4800,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="F163" s="18">
         <v>40000</v>
@@ -4958,19 +4823,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="F164" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G164" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4981,13 +4846,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="F165" s="18">
         <v>40000</v>
@@ -5004,19 +4869,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="F166" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G166" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -5027,13 +4892,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="F167" s="18">
         <v>40000</v>
@@ -5050,19 +4915,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="F168" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G168" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -5073,13 +4938,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="F169" s="18">
         <v>40000</v>
@@ -5096,19 +4961,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F170" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G170" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -5119,13 +4984,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F171" s="18">
         <v>40000</v>
@@ -5142,19 +5007,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="F172" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G172" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -5165,13 +5030,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F173" s="18">
         <v>40000</v>
@@ -5188,19 +5053,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="F174" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G174" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5211,13 +5076,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="F175" s="18">
         <v>40000</v>
@@ -5234,19 +5099,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="F176" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G176" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5257,13 +5122,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="F177" s="18">
         <v>40000</v>
@@ -5280,19 +5145,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="F178" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G178" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5303,13 +5168,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="F179" s="18">
         <v>40000</v>
@@ -5326,13 +5191,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F180" s="18">
         <v>36341</v>
@@ -5349,19 +5214,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F181" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G181" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5372,13 +5237,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F182" s="18">
         <v>36341</v>
@@ -5395,19 +5260,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F183" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G183" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5418,13 +5283,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F184" s="18">
         <v>36341</v>
@@ -5441,19 +5306,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="F185" s="18">
-        <v>42800</v>
+        <v>40000</v>
       </c>
       <c r="G185" s="18">
-        <v>1104026</v>
+        <v>1000000</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5464,19 +5329,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="F186" s="18">
-        <v>56940</v>
+        <v>36341</v>
       </c>
       <c r="G186" s="18">
-        <v>1423500</v>
+        <v>908526</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5487,19 +5352,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="F187" s="18">
-        <v>56940</v>
+        <v>40000</v>
       </c>
       <c r="G187" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5510,19 +5375,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="F188" s="18">
-        <v>7592</v>
+        <v>36341</v>
       </c>
       <c r="G188" s="18">
-        <v>1423500</v>
+        <v>908526</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5533,19 +5398,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="F189" s="18">
-        <v>56940</v>
+        <v>40000</v>
       </c>
       <c r="G189" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5556,19 +5421,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="F190" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G190" s="18">
-        <v>737717</v>
+        <v>908526</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5579,19 +5444,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="F191" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G191" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5602,19 +5467,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="F192" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G192" s="18">
-        <v>737717</v>
+        <v>908526</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5625,19 +5490,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="F193" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G193" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5648,19 +5513,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="F194" s="18">
-        <v>13789</v>
+        <v>36341</v>
       </c>
       <c r="G194" s="18">
-        <v>737717</v>
+        <v>908526</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5671,19 +5536,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="F195" s="18">
-        <v>56940</v>
+        <v>40000</v>
       </c>
       <c r="G195" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5694,19 +5559,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="F196" s="18">
-        <v>20656</v>
+        <v>36341</v>
       </c>
       <c r="G196" s="18">
-        <v>737717</v>
+        <v>908526</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5717,19 +5582,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="F197" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G197" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5740,19 +5605,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="F198" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G198" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5763,19 +5628,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="F199" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G199" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5786,19 +5651,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="F200" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G200" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5809,19 +5674,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="F201" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G201" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5832,19 +5697,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="F202" s="18">
-        <v>39866</v>
+        <v>36341</v>
       </c>
       <c r="G202" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5855,19 +5720,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="F203" s="18">
-        <v>56940</v>
+        <v>40000</v>
       </c>
       <c r="G203" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5878,19 +5743,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F204" s="18">
-        <v>33600</v>
+        <v>36341</v>
       </c>
       <c r="G204" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5901,19 +5766,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="F205" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G205" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5924,19 +5789,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="F206" s="18">
-        <v>36341</v>
+        <v>39866</v>
       </c>
       <c r="G206" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5947,13 +5812,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="F207" s="18">
         <v>36341</v>
@@ -5970,19 +5835,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F208" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G208" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5993,19 +5858,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="F209" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G209" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -6016,13 +5881,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="F210" s="18">
         <v>36341</v>
@@ -6039,19 +5904,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="F211" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G211" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -6062,19 +5927,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="F212" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G212" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -6085,13 +5950,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="F213" s="18">
         <v>36341</v>
@@ -6108,19 +5973,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="F214" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G214" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -6131,19 +5996,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="F215" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G215" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -6154,13 +6019,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="F216" s="18">
         <v>36341</v>
@@ -6177,19 +6042,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="F217" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G217" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -6200,19 +6065,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="F218" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G218" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6223,13 +6088,13 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="F219" s="18">
         <v>36341</v>
@@ -6246,19 +6111,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="F220" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G220" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6269,19 +6134,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="F221" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G221" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6292,13 +6157,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="F222" s="18">
         <v>36341</v>
@@ -6315,19 +6180,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="F223" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G223" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6338,13 +6203,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="F224" s="18">
         <v>36341</v>
@@ -6361,19 +6226,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="F225" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G225" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6384,13 +6249,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F226" s="18">
         <v>36341</v>
@@ -6407,19 +6272,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="F227" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G227" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6430,13 +6295,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="F228" s="18">
         <v>36341</v>
@@ -6453,19 +6318,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="F229" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G229" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6476,13 +6341,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="F230" s="18">
         <v>36341</v>
@@ -6499,19 +6364,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="F231" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G231" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6522,13 +6387,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="F232" s="18">
         <v>36341</v>
@@ -6545,19 +6410,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="F233" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G233" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6568,13 +6433,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="F234" s="18">
         <v>36341</v>
@@ -6591,19 +6456,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="F235" s="18">
-        <v>36341</v>
+        <v>56940</v>
       </c>
       <c r="G235" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6614,19 +6479,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="F236" s="18">
-        <v>36341</v>
+        <v>51246</v>
       </c>
       <c r="G236" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6637,673 +6502,75 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="F237" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G237" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
       <c r="J237" s="20"/>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B238" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C238" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D238" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E238" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F238" s="18">
+      <c r="B238" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D238" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E238" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F238" s="24">
         <v>36341</v>
       </c>
-      <c r="G238" s="18">
+      <c r="G238" s="24">
         <v>908526</v>
       </c>
-      <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
-      <c r="J238" s="20"/>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B239" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C239" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D239" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E239" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F239" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G239" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H239" s="19"/>
-      <c r="I239" s="19"/>
-      <c r="J239" s="20"/>
-    </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B240" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C240" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D240" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E240" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F240" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G240" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H240" s="19"/>
-      <c r="I240" s="19"/>
-      <c r="J240" s="20"/>
-    </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B241" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C241" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D241" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E241" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F241" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G241" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H241" s="19"/>
-      <c r="I241" s="19"/>
-      <c r="J241" s="20"/>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B242" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D242" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E242" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F242" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G242" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H242" s="19"/>
-      <c r="I242" s="19"/>
-      <c r="J242" s="20"/>
+      <c r="H238" s="25"/>
+      <c r="I238" s="25"/>
+      <c r="J238" s="26"/>
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B243" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C243" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D243" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E243" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F243" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G243" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H243" s="19"/>
-      <c r="I243" s="19"/>
-      <c r="J243" s="20"/>
+      <c r="B243" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C243" s="32"/>
+      <c r="H243" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B244" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C244" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D244" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E244" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F244" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G244" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
-      <c r="J244" s="20"/>
-    </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B245" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C245" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D245" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E245" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F245" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G245" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H245" s="19"/>
-      <c r="I245" s="19"/>
-      <c r="J245" s="20"/>
-    </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B246" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C246" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D246" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E246" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F246" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G246" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H246" s="19"/>
-      <c r="I246" s="19"/>
-      <c r="J246" s="20"/>
-    </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B247" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C247" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D247" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E247" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F247" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G247" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H247" s="19"/>
-      <c r="I247" s="19"/>
-      <c r="J247" s="20"/>
-    </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B248" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C248" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D248" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E248" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F248" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G248" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H248" s="19"/>
-      <c r="I248" s="19"/>
-      <c r="J248" s="20"/>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B249" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C249" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D249" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E249" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F249" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G249" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H249" s="19"/>
-      <c r="I249" s="19"/>
-      <c r="J249" s="20"/>
-    </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B250" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C250" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D250" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E250" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F250" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G250" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H250" s="19"/>
-      <c r="I250" s="19"/>
-      <c r="J250" s="20"/>
-    </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B251" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C251" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D251" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E251" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F251" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G251" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H251" s="19"/>
-      <c r="I251" s="19"/>
-      <c r="J251" s="20"/>
-    </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B252" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D252" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E252" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F252" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G252" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H252" s="19"/>
-      <c r="I252" s="19"/>
-      <c r="J252" s="20"/>
-    </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B253" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C253" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D253" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E253" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F253" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G253" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H253" s="19"/>
-      <c r="I253" s="19"/>
-      <c r="J253" s="20"/>
-    </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B254" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C254" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D254" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E254" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F254" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G254" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H254" s="19"/>
-      <c r="I254" s="19"/>
-      <c r="J254" s="20"/>
-    </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B255" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C255" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D255" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E255" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F255" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G255" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H255" s="19"/>
-      <c r="I255" s="19"/>
-      <c r="J255" s="20"/>
-    </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B256" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C256" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D256" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E256" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F256" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G256" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H256" s="19"/>
-      <c r="I256" s="19"/>
-      <c r="J256" s="20"/>
-    </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B257" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C257" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D257" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E257" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F257" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G257" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H257" s="19"/>
-      <c r="I257" s="19"/>
-      <c r="J257" s="20"/>
-    </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B258" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C258" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D258" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E258" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F258" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G258" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H258" s="19"/>
-      <c r="I258" s="19"/>
-      <c r="J258" s="20"/>
-    </row>
-    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B259" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C259" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="D259" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E259" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F259" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G259" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H259" s="19"/>
-      <c r="I259" s="19"/>
-      <c r="J259" s="20"/>
-    </row>
-    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B260" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C260" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D260" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E260" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F260" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G260" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H260" s="19"/>
-      <c r="I260" s="19"/>
-      <c r="J260" s="20"/>
-    </row>
-    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B261" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C261" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D261" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E261" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F261" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G261" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H261" s="19"/>
-      <c r="I261" s="19"/>
-      <c r="J261" s="20"/>
-    </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B262" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C262" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="D262" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E262" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F262" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G262" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H262" s="19"/>
-      <c r="I262" s="19"/>
-      <c r="J262" s="20"/>
-    </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B263" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C263" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D263" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E263" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F263" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G263" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H263" s="19"/>
-      <c r="I263" s="19"/>
-      <c r="J263" s="20"/>
-    </row>
-    <row r="264" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B264" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C264" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D264" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="E264" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F264" s="24">
-        <v>51246</v>
-      </c>
-      <c r="G264" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H264" s="25"/>
-      <c r="I264" s="25"/>
-      <c r="J264" s="26"/>
-    </row>
-    <row r="269" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B269" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="C269" s="32"/>
-      <c r="H269" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I269" s="1"/>
-      <c r="J269" s="1"/>
-    </row>
-    <row r="270" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B270" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="C270" s="32"/>
-      <c r="H270" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I270" s="1"/>
-      <c r="J270" s="1"/>
+      <c r="B244" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C244" s="32"/>
+      <c r="H244" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="H270:J270"/>
-    <mergeCell ref="H269:J269"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="H244:J244"/>
+    <mergeCell ref="H243:J243"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
